--- a/biology/Biochimie/Ferrochélatase/Ferrochélatase.xlsx
+++ b/biology/Biochimie/Ferrochélatase/Ferrochélatase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ferroch%C3%A9latase</t>
+          <t>Ferrochélatase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ferrochélatase (FECH) est une lyase qui catalyse la huitième et dernière étape de la biosynthèse de l'hème au sein des mitochondries.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ferroch%C3%A9latase</t>
+          <t>Ferrochélatase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Activité enzymatique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette enzyme membranaire, d'une masse moléculaire d'environ 86 kDa, est un homodimère, chaque monomère contenant un centre [2Fe-2S][1]. Elle est constituée de 423 acides aminés[2] et permet de convertir la protoporphyrine IX en hème b en catalysant la réaction :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette enzyme membranaire, d'une masse moléculaire d'environ 86 kDa, est un homodimère, chaque monomère contenant un centre [2Fe-2S]. Elle est constituée de 423 acides aminés et permet de convertir la protoporphyrine IX en hème b en catalysant la réaction :
 protoporphyrine + Fe2+  
         ⇌
     {\displaystyle \rightleftharpoons }
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ferroch%C3%A9latase</t>
+          <t>Ferrochélatase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Caractéristique du gène</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez l'humain, le gène encodant cette protéine est situé sur le 18e chromosome[3] et comporte douze exons. Les mutations sur ce gène sont impliquées dans la protoporphyrie érythropoïétique.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'humain, le gène encodant cette protéine est situé sur le 18e chromosome et comporte douze exons. Les mutations sur ce gène sont impliquées dans la protoporphyrie érythropoïétique.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ferroch%C3%A9latase</t>
+          <t>Ferrochélatase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>En Médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La mutation du gène provoque la protoporphyrie érythropoïétique.
 </t>
